--- a/資料/設計書/メモ/モグラ表示時間計算表.xlsx
+++ b/資料/設計書/メモ/モグラ表示時間計算表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\設計書\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB860841-C54D-41B8-BCFF-3B6A65866AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDC33A-25A2-4D75-94BA-BCB207753C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9360" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{0E88035D-A5F3-48B0-98CD-DF910B66F95A}"/>
+    <workbookView xWindow="16620" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{0E88035D-A5F3-48B0-98CD-DF910B66F95A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>=</t>
     <phoneticPr fontId="1"/>
@@ -198,6 +198,54 @@
   </si>
   <si>
     <t>mogu(x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mogu(x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f(x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(view_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_min)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_current</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_max</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBBF60E-D199-42E9-9677-451A872F8F8D}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -651,8 +699,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <f>B3</f>
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -683,7 +730,7 @@
       </c>
       <c r="I12">
         <f>C14+E12</f>
-        <v>2000</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -753,7 +800,65 @@
       </c>
       <c r="C14">
         <f>((D13-F13)/(I13-B9))*(B11-Q13)</f>
-        <v>1800</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <f>(B7-B8)*(B11-B9)/(B2-B9)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
